--- a/activities.xlsx
+++ b/activities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gisel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gisel\Microsoft_hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21CA846-CEE7-4EC6-B50D-F43FD4627627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89945495-A69D-414A-8F7D-8C393A8ECDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8BFD472-2F67-455A-B99A-4E9CB6CE96FE}"/>
   </bookViews>
@@ -33,20 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>Do the laundry</t>
   </si>
   <si>
-    <t>Wake up</t>
-  </si>
-  <si>
     <t>Take a bath</t>
   </si>
   <si>
-    <t>Surf the net</t>
-  </si>
-  <si>
     <t>Exercise</t>
   </si>
   <si>
@@ -138,6 +132,12 @@
   </si>
   <si>
     <t>Activities_granular</t>
+  </si>
+  <si>
+    <t>Household chores</t>
+  </si>
+  <si>
+    <t>Personal activity</t>
   </si>
 </sst>
 </file>
@@ -509,199 +509,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B3335F-12E4-497F-BF81-201FA923C7C8}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
       <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
       <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="1"/>
+    <row r="32" spans="1:2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" ht="17.399999999999999">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" ht="17.399999999999999">
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="2:2" ht="17.399999999999999">
       <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:2" ht="17.399999999999999">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" ht="17.399999999999999">
-      <c r="B37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/activities.xlsx
+++ b/activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gisel\Microsoft_hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89945495-A69D-414A-8F7D-8C393A8ECDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A324B63-137B-44FB-9DD7-6B018F35BFA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8BFD472-2F67-455A-B99A-4E9CB6CE96FE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>Do the laundry</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Online learning</t>
   </si>
   <si>
-    <t>work, "personal", "household chores", "exercise", "sleep"</t>
-  </si>
-  <si>
     <t>Activities_granular</t>
   </si>
   <si>
@@ -138,6 +135,12 @@
   </si>
   <si>
     <t>Personal activity</t>
+  </si>
+  <si>
+    <t>Read a book</t>
+  </si>
+  <si>
+    <t>Volunteer time online</t>
   </si>
 </sst>
 </file>
@@ -509,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B3335F-12E4-497F-BF81-201FA923C7C8}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -521,198 +524,195 @@
     <col min="2" max="2" width="35.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -720,7 +720,7 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -728,60 +728,70 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" ht="17.399999999999999">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" ht="17.399999999999999">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.399999999999999">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" ht="17.399999999999999">
+    <row r="35" spans="1:2" ht="17.399999999999999">
       <c r="B35" s="3"/>
     </row>
   </sheetData>
